--- a/docs/StructureDefinition-CondicionInicio3LE.xlsx
+++ b/docs/StructureDefinition-CondicionInicio3LE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T12:03:32-03:00</t>
+    <t>2023-01-25T13:45:37-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CondicionInicio3LE.xlsx
+++ b/docs/StructureDefinition-CondicionInicio3LE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T13:45:37-03:00</t>
+    <t>2023-01-30T23:51:40-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CondicionInicio3LE.xlsx
+++ b/docs/StructureDefinition-CondicionInicio3LE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T23:51:40-03:00</t>
+    <t>2023-01-31T15:14:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
